--- a/testexcel.xlsx
+++ b/testexcel.xlsx
@@ -24,30 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>Test ID</t>
+    <t>FakeID</t>
   </si>
   <si>
-    <t>First Name</t>
+    <t>One</t>
   </si>
   <si>
-    <t>Last Name</t>
+    <t>Two</t>
   </si>
   <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Bohan</t>
-  </si>
-  <si>
-    <t>Zhang</t>
+    <t>Three</t>
   </si>
 </sst>
 </file>
@@ -402,7 +390,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,42 +399,51 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>5</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
